--- a/output/DSPE603_output.xlsx
+++ b/output/DSPE603_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Staff Report</t>
   </si>
@@ -69,6 +69,21 @@
     <t>&lt;----Type Your Name</t>
   </si>
   <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>DSPE603</t>
+  </si>
+  <si>
+    <t>&lt;---- Type Subject Code</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Mid-Test Mark</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -84,16 +99,16 @@
     <t>Total Absent</t>
   </si>
   <si>
-    <t>Average Marks &amp; %</t>
-  </si>
-  <si>
-    <t>Less Than 15</t>
-  </si>
-  <si>
-    <t>Between 15-30</t>
-  </si>
-  <si>
-    <t>More than 30</t>
+    <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Less Than 40%</t>
+  </si>
+  <si>
+    <t>Between 40 % - 75 %</t>
+  </si>
+  <si>
+    <t>More than 75%</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -126,9 +141,6 @@
     <t>Mohammed Azees M</t>
   </si>
   <si>
-    <t>Upanshu</t>
-  </si>
-  <si>
     <t>Jananika B</t>
   </si>
   <si>
@@ -153,52 +165,82 @@
     <t>Brijesh A</t>
   </si>
   <si>
+    <t>Bhuvanadurai M</t>
+  </si>
+  <si>
     <t>Hitesh Kumar K A</t>
   </si>
   <si>
-    <t>Bhuvanadurai M</t>
-  </si>
-  <si>
     <t>Varsha V</t>
   </si>
   <si>
     <t>Preethiga S</t>
   </si>
   <si>
+    <t>Srija D</t>
+  </si>
+  <si>
+    <t>Kaviraj M</t>
+  </si>
+  <si>
+    <t>Guruprasath V</t>
+  </si>
+  <si>
+    <t>Ragothaman R</t>
+  </si>
+  <si>
     <t>Gowtham R</t>
   </si>
   <si>
-    <t>Ragothaman R</t>
-  </si>
-  <si>
-    <t>Kaviraj M</t>
-  </si>
-  <si>
-    <t>Guruprasath V</t>
-  </si>
-  <si>
-    <t>Srija D</t>
+    <t>Kailashwaran R</t>
   </si>
   <si>
     <t>Mohamed Suhail J</t>
   </si>
   <si>
-    <t>Kailashwaran R</t>
+    <t>Nithya Sri R</t>
+  </si>
+  <si>
+    <t>Arulselvam C</t>
   </si>
   <si>
     <t>Surya Prakash R</t>
   </si>
   <si>
-    <t>Arulselvam C</t>
+    <t>Nawin B</t>
   </si>
   <si>
     <t>Sivaa Ganesh S</t>
   </si>
   <si>
-    <t>Nithya Sri R</t>
-  </si>
-  <si>
-    <t>Nawin B</t>
+    <t>Dhanush B</t>
+  </si>
+  <si>
+    <t>Krishnapriya K</t>
+  </si>
+  <si>
+    <t>Pranav Varshan A T</t>
+  </si>
+  <si>
+    <t>Pradeep M</t>
+  </si>
+  <si>
+    <t>Ashik Jenly V L</t>
+  </si>
+  <si>
+    <t>Mohanraj D</t>
+  </si>
+  <si>
+    <t>Mohamed Tharif B</t>
+  </si>
+  <si>
+    <t>Devadharshini A</t>
+  </si>
+  <si>
+    <t>Dhinakaran R</t>
+  </si>
+  <si>
+    <t>Marikannan P</t>
   </si>
 </sst>
 </file>
@@ -695,17 +737,41 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>51</v>
@@ -713,7 +779,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -721,7 +787,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -729,15 +795,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>27.23529411764706</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
@@ -745,7 +811,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>19</v>
@@ -753,7 +819,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>25</v>
@@ -769,7 +835,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,16 +843,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -797,7 +863,7 @@
         <v>2136110029</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -811,7 +877,7 @@
         <v>2136110042</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -825,7 +891,7 @@
         <v>2236150003</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -839,7 +905,7 @@
         <v>2136110018</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -853,7 +919,7 @@
         <v>2136110035</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -867,24 +933,10 @@
         <v>2236150002</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>2136110024</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +946,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -902,16 +954,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -922,7 +974,7 @@
         <v>2136110008</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -936,7 +988,7 @@
         <v>2136110021</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>38</v>
@@ -950,7 +1002,7 @@
         <v>2136110009</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>38</v>
@@ -964,7 +1016,7 @@
         <v>2136110001</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>37</v>
@@ -978,7 +1030,7 @@
         <v>2136110022</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>37</v>
@@ -992,7 +1044,7 @@
         <v>2136110004</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>36</v>
@@ -1006,7 +1058,7 @@
         <v>2136110013</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>36</v>
@@ -1020,7 +1072,7 @@
         <v>2136110030</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -1028,13 +1080,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>2136110031</v>
+        <v>2136110048</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -1042,13 +1094,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>2136110048</v>
+        <v>2136110031</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -1062,7 +1114,7 @@
         <v>2136110045</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>34</v>
@@ -1076,7 +1128,7 @@
         <v>2136110040</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>34</v>
@@ -1084,13 +1136,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>2136110047</v>
+        <v>2136110020</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>33</v>
@@ -1098,13 +1150,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>2136110041</v>
+        <v>2136110034</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>33</v>
@@ -1112,13 +1164,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>2136110034</v>
+        <v>2136110007</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>33</v>
@@ -1126,13 +1178,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>2136110007</v>
+        <v>2136110041</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>33</v>
@@ -1140,13 +1192,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>2136110020</v>
+        <v>2136110047</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -1154,13 +1206,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>2136110036</v>
+        <v>2136110049</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>32</v>
@@ -1168,13 +1220,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>2136110049</v>
+        <v>2136110036</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -1182,13 +1234,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>2136110023</v>
+        <v>2136110016</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>31</v>
@@ -1202,7 +1254,7 @@
         <v>2136110002</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>31</v>
@@ -1210,13 +1262,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2136110019</v>
+        <v>2136110023</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>31</v>
@@ -1224,13 +1276,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>2136110016</v>
+        <v>2136110014</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>31</v>
@@ -1238,16 +1290,156 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>2136110014</v>
+        <v>2136110019</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>2236150001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2136110010</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>2136110039</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2136110038</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2136110003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>2136110012</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>2136110037</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>2136110005</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>2136110006</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>2136110046</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/DSPE603_output.xlsx
+++ b/output/DSPE603_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Staff Report</t>
   </si>
@@ -105,7 +105,7 @@
     <t>Less Than 40%</t>
   </si>
   <si>
-    <t>Between 40 % - 75 %</t>
+    <t>Between 40% - 75%</t>
   </si>
   <si>
     <t>More than 75%</t>
@@ -141,6 +141,9 @@
     <t>Mohammed Azees M</t>
   </si>
   <si>
+    <t>Upanshu</t>
+  </si>
+  <si>
     <t>Jananika B</t>
   </si>
   <si>
@@ -165,82 +168,52 @@
     <t>Brijesh A</t>
   </si>
   <si>
+    <t>Hitesh Kumar K A</t>
+  </si>
+  <si>
     <t>Bhuvanadurai M</t>
   </si>
   <si>
-    <t>Hitesh Kumar K A</t>
-  </si>
-  <si>
     <t>Varsha V</t>
   </si>
   <si>
     <t>Preethiga S</t>
   </si>
   <si>
+    <t>Gowtham R</t>
+  </si>
+  <si>
+    <t>Ragothaman R</t>
+  </si>
+  <si>
+    <t>Kaviraj M</t>
+  </si>
+  <si>
+    <t>Guruprasath V</t>
+  </si>
+  <si>
     <t>Srija D</t>
   </si>
   <si>
-    <t>Kaviraj M</t>
-  </si>
-  <si>
-    <t>Guruprasath V</t>
-  </si>
-  <si>
-    <t>Ragothaman R</t>
-  </si>
-  <si>
-    <t>Gowtham R</t>
+    <t>Mohamed Suhail J</t>
   </si>
   <si>
     <t>Kailashwaran R</t>
   </si>
   <si>
-    <t>Mohamed Suhail J</t>
+    <t>Surya Prakash R</t>
+  </si>
+  <si>
+    <t>Arulselvam C</t>
+  </si>
+  <si>
+    <t>Sivaa Ganesh S</t>
   </si>
   <si>
     <t>Nithya Sri R</t>
   </si>
   <si>
-    <t>Arulselvam C</t>
-  </si>
-  <si>
-    <t>Surya Prakash R</t>
-  </si>
-  <si>
     <t>Nawin B</t>
-  </si>
-  <si>
-    <t>Sivaa Ganesh S</t>
-  </si>
-  <si>
-    <t>Dhanush B</t>
-  </si>
-  <si>
-    <t>Krishnapriya K</t>
-  </si>
-  <si>
-    <t>Pranav Varshan A T</t>
-  </si>
-  <si>
-    <t>Pradeep M</t>
-  </si>
-  <si>
-    <t>Ashik Jenly V L</t>
-  </si>
-  <si>
-    <t>Mohanraj D</t>
-  </si>
-  <si>
-    <t>Mohamed Tharif B</t>
-  </si>
-  <si>
-    <t>Devadharshini A</t>
-  </si>
-  <si>
-    <t>Dhinakaran R</t>
-  </si>
-  <si>
-    <t>Marikannan P</t>
   </si>
 </sst>
 </file>
@@ -639,7 +612,7 @@
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +638,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -835,7 +808,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -939,6 +912,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2136110024</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -946,7 +933,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -974,7 +961,7 @@
         <v>2136110008</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -988,7 +975,7 @@
         <v>2136110021</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>38</v>
@@ -1002,7 +989,7 @@
         <v>2136110009</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>38</v>
@@ -1016,7 +1003,7 @@
         <v>2136110001</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>37</v>
@@ -1030,7 +1017,7 @@
         <v>2136110022</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>37</v>
@@ -1044,7 +1031,7 @@
         <v>2136110004</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>36</v>
@@ -1058,7 +1045,7 @@
         <v>2136110013</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>36</v>
@@ -1072,7 +1059,7 @@
         <v>2136110030</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -1080,13 +1067,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>2136110048</v>
+        <v>2136110031</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -1094,13 +1081,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>2136110031</v>
+        <v>2136110048</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -1114,7 +1101,7 @@
         <v>2136110045</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>34</v>
@@ -1128,7 +1115,7 @@
         <v>2136110040</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>34</v>
@@ -1136,13 +1123,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>2136110020</v>
+        <v>2136110047</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>33</v>
@@ -1150,13 +1137,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>2136110034</v>
+        <v>2136110041</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>33</v>
@@ -1164,13 +1151,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>2136110007</v>
+        <v>2136110034</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>33</v>
@@ -1178,13 +1165,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>2136110041</v>
+        <v>2136110007</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>33</v>
@@ -1192,13 +1179,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>2136110047</v>
+        <v>2136110020</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -1206,13 +1193,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>2136110049</v>
+        <v>2136110036</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>32</v>
@@ -1220,13 +1207,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>2136110036</v>
+        <v>2136110049</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -1234,13 +1221,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>2136110016</v>
+        <v>2136110023</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>31</v>
@@ -1254,7 +1241,7 @@
         <v>2136110002</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>31</v>
@@ -1262,13 +1249,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>2136110023</v>
+        <v>2136110019</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>31</v>
@@ -1276,13 +1263,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>2136110014</v>
+        <v>2136110016</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>31</v>
@@ -1290,156 +1277,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>2136110019</v>
+        <v>2136110014</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>49</v>
-      </c>
-      <c r="B26">
-        <v>2236150001</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2136110010</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>2136110039</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>2136110038</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>2136110003</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <v>2136110012</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>2136110037</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>2136110005</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>2136110006</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>45</v>
-      </c>
-      <c r="B35">
-        <v>2136110046</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
